--- a/assets/disciplinas/LOQ4070.xlsx
+++ b/assets/disciplinas/LOQ4070.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar conceitos cinéticos e de fenômenos de transporte relativos a sistemas heterogêneos fluido-sólido com reações catalíticas bem como aplicações industriais de reatores heterogêneos catalíticos.</t>
+    <t>5963230 - Leandro Gonçalves de Aguiar</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,20 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5963230 - Leandro Gonçalves de Aguiar</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1. Conceitos gerais em catálise.
-2. Tipos de sistemas catalíticos.
-3. Interação fluido-sólido.
-4. Velocidade das reações catalíticas gás-sólido.
-5. Efeitos do transporte de massa e calor externo.
-6. Transporte de massa interno.
-7. Reatores heterogêneos catalíticos.
-8. Modelos de reatores heterogêneos.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -101,16 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Conceitos gerais em catálise.
-2. Tipos de sistemas catalíticos. Propriedades dos catalisadores sólidos.
-3. Adsorção de um fluido sobre sólidos. Interação fluido-sólido.
-4. Velocidade das reações catalíticas gás-sólido.
-5. Efeitos do transporte de massa e calor externo.
-6. Transporte de massa interno.
-7. Reatores heterogêneos catalíticos.
-8. Modelos de reatores heterogêneos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -120,32 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>O desenvolvimento da disciplina será baseado em leituras, aula expositiva, discussão e resolução de estudos de caso e resolução de exercícios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Provas e trabalhos.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Prova única com nota maior ou igual a 5,0 (cinco).</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>FOGLER, H. S. Elementos de Engenharia das Reações Químicas. 3. ed. Rio de Janeiro: LTC Editora, 2002.
-LEVENSPIEL, O. Chemical Reaction Engineering. 3. ed.  New York: John Wiley &amp; Sons, 1998.
-HILL, C.G. An Introduction to Chemical Engineering Kinetics and Reactor Design. New York: John Wiley&amp;Sons, 1977.
-SMITH, J.M. Chemical Engineering Kinetics. 3rd. ed. New York: McGraw-Hill, 1981.
-DENBIGH, K.; TURNER, R. Introduction to Chemical Reaction Design. Cambridge: Cambridge University Press, 1970.
-FROMENT, G.F.; Bischoff, K.B. Chemical Reactor Analysis and Design. 2nd. ed. New York: John Wiley &amp; Sons, Inc. 1990.
-Textos fornecidos pelo professor da disciplina
-Artigos extraídos de revistas especializadas de Engenharia Química.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -508,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4070.xlsx
+++ b/assets/disciplinas/LOQ4070.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,29 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar conceitos cinéticos e de fenômenos de transporte relativos a sistemas heterogêneos fluido-sólido com reações catalíticas bem como aplicações industriais de reatores heterogêneos catalíticos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5963230 - Leandro Gonçalves de Aguiar</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1. Conceitos gerais em catálise.
+2. Tipos de sistemas catalíticos.
+3. Interação fluido-sólido.
+4. Velocidade das reações catalíticas gás-sólido.
+5. Efeitos do transporte de massa e calor externo.
+6. Transporte de massa interno.
+7. Reatores heterogêneos catalíticos.
+8. Modelos de reatores heterogêneos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +101,16 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Conceitos gerais em catálise.
+2. Tipos de sistemas catalíticos. Propriedades dos catalisadores sólidos.
+3. Adsorção de um fluido sobre sólidos. Interação fluido-sólido.
+4. Velocidade das reações catalíticas gás-sólido.
+5. Efeitos do transporte de massa e calor externo.
+6. Transporte de massa interno.
+7. Reatores heterogêneos catalíticos.
+8. Modelos de reatores heterogêneos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +120,32 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>O desenvolvimento da disciplina será baseado em leituras, aula expositiva, discussão e resolução de estudos de caso e resolução de exercícios.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>O desenvolvimento da disciplina será baseado em leituras, aula expositiva, discussão e resolução de estudos de caso e resolução de exercícios.</t>
+    <t>Provas e trabalhos.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Provas e trabalhos.</t>
+    <t>Prova única com nota maior ou igual a 5,0 (cinco).</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Prova única com nota maior ou igual a 5,0 (cinco).</t>
+    <t>FOGLER, H. S. Elementos de Engenharia das Reações Químicas. 3. ed. Rio de Janeiro: LTC Editora, 2002.
+LEVENSPIEL, O. Chemical Reaction Engineering. 3. ed.  New York: John Wiley &amp; Sons, 1998.
+HILL, C.G. An Introduction to Chemical Engineering Kinetics and Reactor Design. New York: John Wiley&amp;Sons, 1977.
+SMITH, J.M. Chemical Engineering Kinetics. 3rd. ed. New York: McGraw-Hill, 1981.
+DENBIGH, K.; TURNER, R. Introduction to Chemical Reaction Design. Cambridge: Cambridge University Press, 1970.
+FROMENT, G.F.; Bischoff, K.B. Chemical Reactor Analysis and Design. 2nd. ed. New York: John Wiley &amp; Sons, Inc. 1990.
+Textos fornecidos pelo professor da disciplina
+Artigos extraídos de revistas especializadas de Engenharia Química.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +508,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +633,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
